--- a/vendor/excel/src/test/resources/fill.xlsx
+++ b/vendor/excel/src/test/resources/fill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warriorg/workspace/java/java-sample/vendor/excel/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAFF072-F30E-5C47-8D9F-C1BC276EFC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023172AF-F1D3-E84F-9F43-35C2D9D711CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PackingList" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <r>
       <rPr>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>{list.serialNo}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{list.Unit}</t>
   </si>
 </sst>
 </file>
@@ -462,12 +468,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -492,6 +492,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,10 +806,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A18:XFD19"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -825,34 +831,34 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1"/>
     <row r="2" spans="1:14" ht="41.25" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
@@ -862,16 +868,16 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
@@ -882,32 +888,32 @@
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="4"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="4"/>
       <c r="L6" s="10"/>
       <c r="M6" s="11"/>
@@ -989,33 +995,33 @@
       <c r="N10"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
       <c r="L11" s="10"/>
       <c r="M11" s="14"/>
       <c r="N11"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1024,16 +1030,16 @@
       <c r="N12"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
       <c r="K13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1080,10 +1086,10 @@
       <c r="D16" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="19" t="s">
         <v>26</v>
       </c>
@@ -1118,13 +1124,15 @@
       <c r="D17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="21"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
@@ -1174,15 +1182,25 @@
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" ht="25.5" customHeight="1">
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
       <c r="N24"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:J6"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="A5:J5"/>
@@ -1191,11 +1209,6 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
